--- a/Take2/docs/Benchmarking/Benchmark Runs.xlsx
+++ b/Take2/docs/Benchmarking/Benchmark Runs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipointer\Source\Repos\NuLog\Take2\docs\Benchmarking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan\Source\Repos\NuLog\Take2\docs\Benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -676,24 +676,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M32"/>
+  <dimension ref="A2:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>42919.443356481483</v>
       </c>
@@ -731,8 +731,11 @@
       <c r="M2" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42919.443414351852</v>
       </c>
@@ -770,8 +773,11 @@
       <c r="M3" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42919.443449074075</v>
       </c>
@@ -802,8 +808,12 @@
         <f t="shared" si="2"/>
         <v>0.18223897</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="10">
+        <f>L3/P2</f>
+        <v>0.54977070163576192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42919.443483796298</v>
       </c>
@@ -834,8 +844,12 @@
         <f t="shared" si="2"/>
         <v>0.18345885000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="10">
+        <f>L4*P3</f>
+        <v>2.1990828065430477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42919.443530092591</v>
       </c>
@@ -867,7 +881,7 @@
         <v>0.18418788</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42919.447060185186</v>
       </c>
@@ -899,7 +913,7 @@
         <v>0.18095524000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42919.447106481479</v>
       </c>
@@ -931,7 +945,7 @@
         <v>0.18188261</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42919.447141203702</v>
       </c>
@@ -963,7 +977,7 @@
         <v>0.17998962999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42919.447175925925</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>0.18048728</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>42919.447210648148</v>
       </c>
@@ -1027,7 +1041,7 @@
         <v>0.18056885</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>42919.450914351852</v>
       </c>
@@ -1059,7 +1073,7 @@
         <v>0.18038183000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>42919.451863425929</v>
       </c>
@@ -1098,7 +1112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>42919.451921296299</v>
       </c>
@@ -1137,7 +1151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>42919.451967592591</v>
       </c>
@@ -1168,8 +1182,12 @@
         <f t="shared" si="2"/>
         <v>0.22731844000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="15">
+        <f>L14/P2</f>
+        <v>0.43273794261296844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>42919.452013888891</v>
       </c>
@@ -1200,8 +1218,12 @@
         <f t="shared" si="2"/>
         <v>0.23664996000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="15">
+        <f>L15*P3</f>
+        <v>1.7309517704518738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>42919.452048611114</v>
       </c>
@@ -1233,7 +1255,7 @@
         <v>0.23323847999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>42919.452094907407</v>
       </c>
@@ -1265,7 +1287,7 @@
         <v>0.22496250999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>42919.45212962963</v>
       </c>
@@ -1297,7 +1319,7 @@
         <v>0.23261428000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>42919.452175925922</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>0.23236883999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>42919.452210648145</v>
       </c>
@@ -1361,7 +1383,7 @@
         <v>0.22817370999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>42919.452256944445</v>
       </c>
@@ -1393,7 +1415,7 @@
         <v>0.23322851999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42919.452928240738</v>
       </c>
@@ -1432,7 +1454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42919.452962962961</v>
       </c>
@@ -1471,7 +1493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42919.452986111108</v>
       </c>
@@ -1502,8 +1524,12 @@
         <f t="shared" si="2"/>
         <v>0.10931612</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="5">
+        <f>L24/P2</f>
+        <v>0.90808986384645418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42919.453020833331</v>
       </c>
@@ -1534,8 +1560,12 @@
         <f t="shared" si="2"/>
         <v>0.10993153</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="5">
+        <f>L25*P3</f>
+        <v>3.6323594553858167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42919.453043981484</v>
       </c>
@@ -1567,7 +1597,7 @@
         <v>0.10898823000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42919.4530787037</v>
       </c>
@@ -1599,7 +1629,7 @@
         <v>0.11111997000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42919.453101851854</v>
       </c>
@@ -1631,7 +1661,7 @@
         <v>0.10917304000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42919.453125</v>
       </c>
@@ -1663,7 +1693,7 @@
         <v>0.11146925999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42919.453159722223</v>
       </c>
@@ -1695,7 +1725,7 @@
         <v>0.11078661000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42919.453182870369</v>
       </c>
@@ -1741,17 +1771,17 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>42919.461504629631</v>
       </c>
@@ -1790,7 +1820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>42919.461585648147</v>
       </c>
@@ -1829,7 +1859,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>42919.46162037037</v>
       </c>
@@ -1861,7 +1891,7 @@
         <v>1.840725E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>42919.461631944447</v>
       </c>
@@ -1893,7 +1923,7 @@
         <v>1.8541129999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>42919.461643518516</v>
       </c>
@@ -1925,7 +1955,7 @@
         <v>1.8913079999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>42919.46166666667</v>
       </c>
@@ -1957,7 +1987,7 @@
         <v>1.899089E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>42919.461678240739</v>
       </c>
@@ -1989,7 +2019,7 @@
         <v>1.8640759999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>42919.461689814816</v>
       </c>
@@ -2021,7 +2051,7 @@
         <v>1.830584E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>42919.461701388886</v>
       </c>
@@ -2053,7 +2083,7 @@
         <v>1.899971E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>42919.461712962962</v>
       </c>
@@ -2085,7 +2115,7 @@
         <v>1.8433600000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>42919.507777777777</v>
       </c>
@@ -2124,7 +2154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>42919.507824074077</v>
       </c>
@@ -2163,7 +2193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>42919.5078587963</v>
       </c>
@@ -2195,7 +2225,7 @@
         <v>0.12819913999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>42919.507881944446</v>
       </c>
@@ -2227,7 +2257,7 @@
         <v>0.12871316999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>42919.507905092592</v>
       </c>
@@ -2259,7 +2289,7 @@
         <v>0.13035041</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>42919.507939814815</v>
       </c>
@@ -2291,7 +2321,7 @@
         <v>0.12988336</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>42919.507962962962</v>
       </c>
@@ -2323,7 +2353,7 @@
         <v>0.14940844</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>42919.507997685185</v>
       </c>
@@ -2355,7 +2385,7 @@
         <v>0.14498569</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>42919.508032407408</v>
       </c>
@@ -2387,7 +2417,7 @@
         <v>0.14651375999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>42919.508055555554</v>
       </c>
@@ -2419,7 +2449,7 @@
         <v>0.11400898</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42919.508657407408</v>
       </c>
@@ -2458,7 +2488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42919.508680555555</v>
       </c>
@@ -2497,7 +2527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42919.508703703701</v>
       </c>
@@ -2529,7 +2559,7 @@
         <v>3.3731190000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42919.508715277778</v>
       </c>
@@ -2561,7 +2591,7 @@
         <v>3.3313399999999993E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42919.508738425924</v>
       </c>
@@ -2593,7 +2623,7 @@
         <v>3.2768459999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42919.508750000001</v>
       </c>
@@ -2625,7 +2655,7 @@
         <v>3.2913060000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42919.508784722224</v>
       </c>
@@ -2657,7 +2687,7 @@
         <v>3.286965E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42919.508796296293</v>
       </c>
@@ -2689,7 +2719,7 @@
         <v>3.2850529999999996E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42919.508819444447</v>
       </c>
@@ -2721,7 +2751,7 @@
         <v>3.3729629999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42919.508842592593</v>
       </c>
